--- a/smartfridge_gantt.xlsx
+++ b/smartfridge_gantt.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Market study &amp; competitors analysis</t>
+          <t>Étude marché + concurrence (Samsung, LG, Bosch)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -479,7 +479,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Product Owner</t>
+          <t>Product Owner / Business</t>
         </is>
       </c>
     </row>
@@ -491,11 +491,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Define functional specifications (Smart Fridge + Drive integration)</t>
+          <t>Définition fonctionnelle du Smart Fridge (détection, seuils, Drive)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -509,12 +509,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prototype</t>
+          <t>Prototype / Pilote</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Develop AI prototype (object recognition)</t>
+          <t>Prototype IA embarquée (caméra + Jetson/RPi dans un frigo modifié)</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -525,19 +525,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>IA Engineer / IoT Engineer</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prototype</t>
+          <t>Prototype / Pilote</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Develop mobile app (inventory + Drive sync)</t>
+          <t>Développement app mobile + backend (inventaire, panier Drive)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -548,19 +548,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mobile Dev</t>
+          <t>Mobile Dev / Backend Dev</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prototype</t>
+          <t>Prototype / Pilote</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Integrate Drive API (E.Leclerc sandbox)</t>
+          <t>Intégration API Drive (ajout auto au panier Leclerc)</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -571,7 +571,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Backend Dev</t>
+          <t>Backend Dev / Business Retail</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Finalize hardware integration (IoT modules)</t>
+          <t>Intégration hardware propre dans frigo de série</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -606,7 +606,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RGPD compliance &amp; data privacy validation</t>
+          <t>Validation RGPD, conformité CE, sécurité des données</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Internal communication (team sync, planning updates)</t>
+          <t>Communication interne équipe (planning, priorités, responsabilités)</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -640,7 +640,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PO + All</t>
+          <t>Product Owner</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>External communication (board report + budget request)</t>
+          <t>Communication Board / Investisseur (demande de budget, vision marché)</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -663,19 +663,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PO + Business Dev</t>
+          <t>Product Owner / Business</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Soutenance</t>
+          <t>Soutenance finale</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Final presentation &amp; documentation review</t>
+          <t>Prépa soutenance + ajustement livrables (Gantt, budget, risques)</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Toute l'équipe</t>
         </is>
       </c>
     </row>
